--- a/biology/Zoologie/Alesa_telephae/Alesa_telephae.xlsx
+++ b/biology/Zoologie/Alesa_telephae/Alesa_telephae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alesa telephae est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Alesa.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alesa telephae a été décrit par Boisduval en 1836 sous le nom de Eurybia telephae.
-Synonymes : Alesa negra Röber, 1931 ; Alesa prema forme sapphirina Biedermann, 1936[1].
-Noms vernaculaires
-Il se nomme Telephae Metalmark en anglais.
+Synonymes : Alesa negra Röber, 1931 ; Alesa prema forme sapphirina Biedermann, 1936.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alesa telephae est un papillon de taille moyenne au dessus noir marqué de rouge et au revers beige marqué de veines et taches marron avec aux postérieures une ligne submarginale d'ocelles noirs cerclés de clair.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Telephae Metalmark en anglais.
 </t>
         </is>
       </c>
@@ -573,10 +591,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alesa telephae est un papillon de taille moyenne au dessus noir marqué de rouge et au revers beige marqué de veines et taches marron avec aux postérieures une ligne submarginale d'ocelles noirs cerclés de clair.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,16 +624,116 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alesa_telephae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alesa_telephae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alesa telephae est présent en Guyane et au Brésil[1].
-Biotope
-Il réside dans la forêt amazonienne.
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alesa telephae est présent en Guyane et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alesa_telephae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alesa_telephae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt amazonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alesa_telephae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alesa_telephae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
